--- a/uploads/Bahan-Asops.xlsx
+++ b/uploads/Bahan-Asops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dapurdata/Desktop/Jan/AI-Analysis/analisis_risiko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A811F8-FC21-EB4C-8178-D5A6083764E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DB518-E387-7B47-A346-C438247E542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1720" windowWidth="26100" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pusat" sheetId="1" r:id="rId1"/>
@@ -8954,18 +8954,19 @@
   </sheetPr>
   <dimension ref="A1:F787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E710" sqref="E710"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9065,7 +9066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9085,7 +9086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9185,7 +9186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9345,7 +9346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9525,7 +9526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9905,7 +9906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9985,7 +9986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10125,7 +10126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -23982,7 +23983,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1597</v>
       </c>
@@ -24002,7 +24003,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -24022,7 +24023,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -24042,7 +24043,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -24062,7 +24063,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -24082,7 +24083,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -24102,7 +24103,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -24122,7 +24123,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -24142,7 +24143,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -24162,7 +24163,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24182,7 +24183,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -24202,7 +24203,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -24222,7 +24223,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -24242,7 +24243,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -24262,7 +24263,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -24282,7 +24283,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -24302,7 +24303,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -24322,7 +24323,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -24342,7 +24343,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -24362,7 +24363,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -24382,7 +24383,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -24402,7 +24403,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -24422,7 +24423,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -24442,7 +24443,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -24462,7 +24463,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -24482,7 +24483,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -24502,7 +24503,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -24522,7 +24523,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -24542,7 +24543,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -24562,7 +24563,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -24582,7 +24583,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -24602,7 +24603,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -24622,7 +24623,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -24642,7 +24643,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -24662,7 +24663,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -24682,7 +24683,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -24702,7 +24703,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -24722,7 +24723,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -24742,7 +24743,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -24762,7 +24763,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -24782,7 +24783,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -24802,7 +24803,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -24822,7 +24823,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -24842,7 +24843,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -24862,7 +24863,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -24882,7 +24883,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -24902,7 +24903,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -24922,7 +24923,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -24942,7 +24943,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -24962,7 +24963,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -24982,7 +24983,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -25002,7 +25003,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>7</v>
       </c>
@@ -25022,7 +25023,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -25042,7 +25043,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>9</v>
       </c>
@@ -25062,7 +25063,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -25082,7 +25083,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -25102,7 +25103,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>12</v>
       </c>
@@ -25122,7 +25123,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>13</v>
       </c>
@@ -25142,7 +25143,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>14</v>
       </c>
@@ -25162,7 +25163,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>15</v>
       </c>
@@ -25182,7 +25183,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>16</v>
       </c>
@@ -25202,7 +25203,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>17</v>
       </c>
@@ -25222,7 +25223,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -25242,7 +25243,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>19</v>
       </c>
@@ -25262,7 +25263,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>20</v>
       </c>
@@ -25282,7 +25283,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>21</v>
       </c>
@@ -25302,7 +25303,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>22</v>
       </c>
@@ -25322,7 +25323,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>23</v>
       </c>
@@ -25342,7 +25343,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>24</v>
       </c>
@@ -25362,7 +25363,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>25</v>
       </c>
@@ -25382,7 +25383,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>26</v>
       </c>
@@ -25402,7 +25403,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>27</v>
       </c>
@@ -25422,7 +25423,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>28</v>
       </c>
@@ -25442,7 +25443,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>29</v>
       </c>
@@ -25462,7 +25463,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>30</v>
       </c>
@@ -25482,7 +25483,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>31</v>
       </c>
@@ -25502,7 +25503,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>32</v>
       </c>
@@ -25522,7 +25523,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>33</v>
       </c>
@@ -25542,7 +25543,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>34</v>
       </c>
@@ -25562,7 +25563,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>35</v>
       </c>
@@ -25582,7 +25583,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>36</v>
       </c>
@@ -25602,7 +25603,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>37</v>
       </c>
@@ -25622,7 +25623,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38</v>
       </c>
@@ -25642,7 +25643,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39</v>
       </c>
@@ -25662,7 +25663,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>40</v>
       </c>
@@ -25682,7 +25683,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>41</v>
       </c>
@@ -25702,7 +25703,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42</v>
       </c>
@@ -25722,7 +25723,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43</v>
       </c>
@@ -25742,7 +25743,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44</v>
       </c>
@@ -25762,7 +25763,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45</v>
       </c>
@@ -25782,7 +25783,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>46</v>
       </c>
@@ -25802,7 +25803,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>47</v>
       </c>
@@ -25822,7 +25823,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>48</v>
       </c>
@@ -25842,7 +25843,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>49</v>
       </c>
@@ -25862,7 +25863,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>50</v>
       </c>
@@ -25882,7 +25883,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>51</v>
       </c>
@@ -25902,7 +25903,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>52</v>
       </c>
@@ -25922,7 +25923,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>53</v>
       </c>
@@ -25942,7 +25943,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>54</v>
       </c>
@@ -25962,7 +25963,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>55</v>
       </c>
@@ -25982,7 +25983,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>56</v>
       </c>
@@ -26002,7 +26003,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>57</v>
       </c>
@@ -26022,7 +26023,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>58</v>
       </c>
@@ -26042,7 +26043,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>59</v>
       </c>
@@ -26062,7 +26063,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>60</v>
       </c>
@@ -26082,7 +26083,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>61</v>
       </c>
@@ -26102,7 +26103,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>62</v>
       </c>
@@ -26122,7 +26123,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>63</v>
       </c>
@@ -26142,7 +26143,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>64</v>
       </c>
@@ -26162,7 +26163,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>65</v>
       </c>
@@ -26182,7 +26183,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>66</v>
       </c>
@@ -26202,7 +26203,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>67</v>
       </c>
@@ -26222,7 +26223,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>68</v>
       </c>
@@ -26242,7 +26243,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>69</v>
       </c>
@@ -26262,7 +26263,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>70</v>
       </c>
@@ -26282,7 +26283,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>71</v>
       </c>
@@ -26302,7 +26303,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>72</v>
       </c>
@@ -26325,7 +26326,7 @@
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -26345,7 +26346,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -26365,7 +26366,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>3</v>
       </c>
@@ -26385,7 +26386,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -26405,7 +26406,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>5</v>
       </c>
@@ -26425,7 +26426,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>6</v>
       </c>
@@ -26445,7 +26446,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>7</v>
       </c>
@@ -26465,7 +26466,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>8</v>
       </c>
@@ -26485,7 +26486,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>9</v>
       </c>
@@ -26505,7 +26506,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>10</v>
       </c>
@@ -26525,7 +26526,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>11</v>
       </c>
@@ -26545,7 +26546,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>12</v>
       </c>
@@ -26565,7 +26566,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>13</v>
       </c>
@@ -26585,7 +26586,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>14</v>
       </c>
@@ -26605,7 +26606,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>15</v>
       </c>
@@ -26625,7 +26626,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>16</v>
       </c>
@@ -26645,7 +26646,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>17</v>
       </c>
@@ -26665,7 +26666,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>18</v>
       </c>
@@ -26685,7 +26686,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>19</v>
       </c>
@@ -26705,7 +26706,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>20</v>
       </c>
@@ -26725,7 +26726,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>21</v>
       </c>
@@ -26745,7 +26746,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>22</v>
       </c>
@@ -26765,7 +26766,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -26785,7 +26786,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -26805,7 +26806,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -26825,7 +26826,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>4</v>
       </c>
@@ -26845,7 +26846,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -26865,7 +26866,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>6</v>
       </c>
@@ -26885,7 +26886,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>7</v>
       </c>
@@ -26905,7 +26906,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>8</v>
       </c>
@@ -26925,7 +26926,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>9</v>
       </c>
@@ -26945,7 +26946,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>10</v>
       </c>
@@ -26965,7 +26966,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>11</v>
       </c>
@@ -26985,7 +26986,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>12</v>
       </c>
@@ -27005,7 +27006,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>13</v>
       </c>
@@ -27025,7 +27026,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>14</v>
       </c>
@@ -27045,7 +27046,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>15</v>
       </c>
@@ -27065,7 +27066,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>16</v>
       </c>
@@ -27085,7 +27086,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>17</v>
       </c>
@@ -27105,7 +27106,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>18</v>
       </c>
@@ -27125,7 +27126,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>19</v>
       </c>
@@ -27145,7 +27146,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>20</v>
       </c>
@@ -27165,7 +27166,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>21</v>
       </c>
@@ -27185,7 +27186,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>22</v>
       </c>
@@ -27205,7 +27206,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>23</v>
       </c>
@@ -27225,7 +27226,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>24</v>
       </c>
@@ -27245,7 +27246,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>25</v>
       </c>
@@ -27265,7 +27266,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>26</v>
       </c>
@@ -27285,7 +27286,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>27</v>
       </c>
@@ -27305,7 +27306,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>28</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>29</v>
       </c>
@@ -27345,7 +27346,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>30</v>
       </c>
@@ -27365,7 +27366,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>31</v>
       </c>
@@ -27385,7 +27386,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>32</v>
       </c>
@@ -27405,7 +27406,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>33</v>
       </c>
@@ -27425,7 +27426,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>34</v>
       </c>
@@ -27445,7 +27446,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>35</v>
       </c>
@@ -27465,7 +27466,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>36</v>
       </c>
@@ -27485,7 +27486,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37</v>
       </c>
@@ -27505,7 +27506,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>38</v>
       </c>
@@ -27525,7 +27526,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>39</v>
       </c>
@@ -27545,7 +27546,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>40</v>
       </c>
@@ -27565,7 +27566,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41</v>
       </c>
@@ -27585,7 +27586,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42</v>
       </c>
@@ -27605,7 +27606,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43</v>
       </c>
@@ -27625,7 +27626,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44</v>
       </c>
@@ -27645,7 +27646,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45</v>
       </c>
@@ -27665,7 +27666,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>46</v>
       </c>
@@ -27685,7 +27686,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>47</v>
       </c>
@@ -27705,7 +27706,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>48</v>
       </c>
@@ -27725,7 +27726,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>49</v>
       </c>
@@ -27745,7 +27746,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>50</v>
       </c>
@@ -27765,7 +27766,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>51</v>
       </c>
@@ -27785,7 +27786,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>52</v>
       </c>
@@ -27805,7 +27806,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>53</v>
       </c>
@@ -27825,7 +27826,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>54</v>
       </c>
@@ -27845,7 +27846,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>55</v>
       </c>
@@ -27865,7 +27866,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>56</v>
       </c>
@@ -27885,7 +27886,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>57</v>
       </c>
@@ -27905,7 +27906,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>58</v>
       </c>
@@ -27925,7 +27926,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>59</v>
       </c>
@@ -27945,7 +27946,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>60</v>
       </c>
@@ -27965,7 +27966,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>61</v>
       </c>
@@ -27985,7 +27986,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>62</v>
       </c>
@@ -28005,7 +28006,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>63</v>
       </c>
@@ -28025,7 +28026,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>64</v>
       </c>
@@ -28045,7 +28046,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>65</v>
       </c>
@@ -28065,7 +28066,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>66</v>
       </c>
@@ -28085,7 +28086,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>67</v>
       </c>
@@ -28105,7 +28106,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>68</v>
       </c>
@@ -28125,7 +28126,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>69</v>
       </c>
@@ -28145,7 +28146,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>70</v>
       </c>
@@ -28165,7 +28166,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>71</v>
       </c>
@@ -28185,7 +28186,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>72</v>
       </c>
@@ -28205,7 +28206,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>73</v>
       </c>
@@ -28225,7 +28226,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>74</v>
       </c>
@@ -28245,7 +28246,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>75</v>
       </c>
@@ -28265,7 +28266,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>76</v>
       </c>
@@ -28285,7 +28286,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>77</v>
       </c>
@@ -28305,7 +28306,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>78</v>
       </c>
@@ -28325,7 +28326,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>79</v>
       </c>
@@ -28345,7 +28346,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>80</v>
       </c>
@@ -28365,7 +28366,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>81</v>
       </c>
@@ -28385,7 +28386,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>82</v>
       </c>
@@ -28405,7 +28406,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>83</v>
       </c>
@@ -28425,7 +28426,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>84</v>
       </c>
@@ -28445,7 +28446,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>85</v>
       </c>
@@ -28465,7 +28466,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>86</v>
       </c>
@@ -28485,7 +28486,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>87</v>
       </c>
@@ -28505,7 +28506,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>88</v>
       </c>
@@ -28525,7 +28526,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>89</v>
       </c>
@@ -28545,7 +28546,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>90</v>
       </c>
@@ -28565,7 +28566,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>91</v>
       </c>
@@ -28585,7 +28586,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>92</v>
       </c>
@@ -28605,7 +28606,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>93</v>
       </c>
@@ -28625,7 +28626,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>94</v>
       </c>
@@ -28645,7 +28646,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>95</v>
       </c>
@@ -28665,7 +28666,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>96</v>
       </c>
@@ -28685,7 +28686,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>97</v>
       </c>
@@ -28705,7 +28706,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>98</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>99</v>
       </c>
@@ -28748,7 +28749,7 @@
     <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>1</v>
       </c>
@@ -28768,7 +28769,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -28788,7 +28789,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>3</v>
       </c>
@@ -28808,7 +28809,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>4</v>
       </c>
@@ -28828,7 +28829,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>5</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>6</v>
       </c>
@@ -28868,7 +28869,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>7</v>
       </c>
@@ -28888,7 +28889,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -28908,7 +28909,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>9</v>
       </c>
@@ -28928,7 +28929,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>10</v>
       </c>
@@ -28948,7 +28949,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>11</v>
       </c>
@@ -28968,7 +28969,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>12</v>
       </c>
@@ -28988,7 +28989,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>13</v>
       </c>
@@ -29008,7 +29009,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>14</v>
       </c>
@@ -29028,7 +29029,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>15</v>
       </c>
@@ -29048,7 +29049,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>16</v>
       </c>
@@ -29068,7 +29069,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>17</v>
       </c>
@@ -29088,7 +29089,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>18</v>
       </c>
@@ -29108,7 +29109,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>19</v>
       </c>
@@ -29128,7 +29129,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>20</v>
       </c>
@@ -29148,7 +29149,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>21</v>
       </c>
@@ -29168,7 +29169,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>22</v>
       </c>
@@ -29188,7 +29189,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>23</v>
       </c>
@@ -29208,7 +29209,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>24</v>
       </c>
@@ -29228,7 +29229,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>25</v>
       </c>
@@ -29248,7 +29249,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>26</v>
       </c>
@@ -29268,7 +29269,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>27</v>
       </c>
@@ -29288,7 +29289,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>28</v>
       </c>
@@ -29308,7 +29309,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>29</v>
       </c>
@@ -29328,7 +29329,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>30</v>
       </c>
@@ -29348,7 +29349,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>31</v>
       </c>
@@ -29368,7 +29369,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>32</v>
       </c>
@@ -29388,7 +29389,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>33</v>
       </c>
@@ -29408,7 +29409,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>34</v>
       </c>
@@ -29428,7 +29429,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>35</v>
       </c>
@@ -29448,7 +29449,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>36</v>
       </c>
@@ -29468,7 +29469,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>1</v>
       </c>
@@ -29488,7 +29489,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -29508,7 +29509,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>3</v>
       </c>
@@ -29531,7 +29532,7 @@
     <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>1</v>
       </c>
@@ -29551,7 +29552,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -29571,7 +29572,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>3</v>
       </c>
@@ -29591,7 +29592,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>4</v>
       </c>
@@ -29611,7 +29612,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>5</v>
       </c>
@@ -29631,7 +29632,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>6</v>
       </c>
@@ -29651,7 +29652,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>7</v>
       </c>
@@ -29671,7 +29672,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>8</v>
       </c>
@@ -29691,7 +29692,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>9</v>
       </c>
@@ -29727,7 +29728,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29747,7 +29748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -29767,7 +29768,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -29787,7 +29788,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -29807,7 +29808,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -29827,7 +29828,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -29847,7 +29848,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -29867,7 +29868,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -29887,7 +29888,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -29907,7 +29908,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -29927,7 +29928,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -29947,7 +29948,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -29967,7 +29968,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -29987,7 +29988,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -30007,7 +30008,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -30027,7 +30028,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -30047,7 +30048,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -30067,7 +30068,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -30087,7 +30088,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -30107,7 +30108,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -30127,7 +30128,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -30147,7 +30148,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -30167,7 +30168,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -30187,7 +30188,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -30207,7 +30208,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -30227,7 +30228,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -30247,7 +30248,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -30267,7 +30268,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -30287,7 +30288,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -30307,7 +30308,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -30327,7 +30328,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -30347,7 +30348,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -30367,7 +30368,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -30387,7 +30388,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -30407,7 +30408,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -30427,7 +30428,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -30447,7 +30448,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -30467,7 +30468,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -30487,7 +30488,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -30507,7 +30508,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -30527,7 +30528,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -30547,7 +30548,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -30567,7 +30568,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -30587,7 +30588,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -30607,7 +30608,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -30627,7 +30628,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -30647,7 +30648,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -30667,7 +30668,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -30687,7 +30688,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -30707,7 +30708,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -30727,7 +30728,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -30747,7 +30748,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -30767,7 +30768,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -30787,7 +30788,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -30807,7 +30808,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -30827,7 +30828,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -30847,7 +30848,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -30867,7 +30868,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -30887,7 +30888,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -30907,7 +30908,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -30927,7 +30928,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -30947,7 +30948,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -30967,7 +30968,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -30987,7 +30988,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -31007,7 +31008,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -31027,7 +31028,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -31047,7 +31048,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -31067,7 +31068,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -31087,7 +31088,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -31107,7 +31108,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -31127,7 +31128,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -31147,7 +31148,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -31167,7 +31168,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -31187,7 +31188,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -31207,7 +31208,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -31227,7 +31228,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -31247,7 +31248,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -31267,7 +31268,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -31287,7 +31288,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -31307,7 +31308,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -31327,7 +31328,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -31347,7 +31348,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -31367,7 +31368,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -31387,7 +31388,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -31407,7 +31408,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -31427,7 +31428,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>6</v>
       </c>
@@ -31447,7 +31448,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>7</v>
       </c>
@@ -31467,7 +31468,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -31487,7 +31488,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>9</v>
       </c>
@@ -31507,7 +31508,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>10</v>
       </c>
@@ -31527,7 +31528,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>11</v>
       </c>
@@ -31547,7 +31548,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>12</v>
       </c>
@@ -31567,7 +31568,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>13</v>
       </c>
@@ -31587,7 +31588,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -31607,7 +31608,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>15</v>
       </c>
@@ -31627,7 +31628,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>16</v>
       </c>
@@ -31647,7 +31648,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>17</v>
       </c>
@@ -31667,7 +31668,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>18</v>
       </c>
@@ -31687,7 +31688,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>19</v>
       </c>
@@ -31707,7 +31708,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>20</v>
       </c>
@@ -31727,7 +31728,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>21</v>
       </c>
@@ -31747,7 +31748,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>22</v>
       </c>
@@ -31767,7 +31768,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>23</v>
       </c>
@@ -31787,7 +31788,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>24</v>
       </c>
@@ -31807,7 +31808,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>25</v>
       </c>
@@ -31827,7 +31828,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>26</v>
       </c>
@@ -31847,7 +31848,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>27</v>
       </c>
@@ -31867,7 +31868,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>28</v>
       </c>
@@ -31887,7 +31888,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>29</v>
       </c>
@@ -31907,7 +31908,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>30</v>
       </c>
@@ -31927,7 +31928,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>31</v>
       </c>
@@ -31947,7 +31948,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>32</v>
       </c>
@@ -31967,7 +31968,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>33</v>
       </c>
@@ -31987,7 +31988,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>34</v>
       </c>
@@ -32007,7 +32008,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35</v>
       </c>
@@ -32027,7 +32028,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>36</v>
       </c>
@@ -32047,7 +32048,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>37</v>
       </c>
@@ -32067,7 +32068,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>38</v>
       </c>
@@ -32087,7 +32088,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>39</v>
       </c>
@@ -32107,7 +32108,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40</v>
       </c>
@@ -32127,7 +32128,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>41</v>
       </c>
@@ -32147,7 +32148,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42</v>
       </c>
@@ -32167,7 +32168,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43</v>
       </c>
@@ -32187,7 +32188,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44</v>
       </c>
@@ -32207,7 +32208,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45</v>
       </c>
@@ -32227,7 +32228,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>46</v>
       </c>
@@ -32247,7 +32248,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>47</v>
       </c>
@@ -32267,7 +32268,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>48</v>
       </c>
@@ -32287,7 +32288,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>49</v>
       </c>
@@ -32307,7 +32308,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>50</v>
       </c>
@@ -32327,7 +32328,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>51</v>
       </c>
@@ -32347,7 +32348,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>52</v>
       </c>
@@ -32367,7 +32368,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>53</v>
       </c>
@@ -32387,7 +32388,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>54</v>
       </c>
@@ -32407,7 +32408,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>55</v>
       </c>
@@ -32427,7 +32428,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>56</v>
       </c>
@@ -32447,7 +32448,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>57</v>
       </c>
@@ -32467,7 +32468,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>58</v>
       </c>
@@ -32487,7 +32488,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>59</v>
       </c>
@@ -32507,7 +32508,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>60</v>
       </c>
@@ -32527,7 +32528,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>61</v>
       </c>
@@ -32547,7 +32548,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>62</v>
       </c>
@@ -32567,7 +32568,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>63</v>
       </c>
@@ -32587,7 +32588,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>64</v>
       </c>
@@ -32607,7 +32608,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>65</v>
       </c>
@@ -32627,7 +32628,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>66</v>
       </c>
@@ -32647,7 +32648,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>67</v>
       </c>
@@ -32667,7 +32668,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>68</v>
       </c>
@@ -32687,7 +32688,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>69</v>
       </c>
@@ -32707,7 +32708,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>70</v>
       </c>
@@ -32727,7 +32728,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>71</v>
       </c>
@@ -32747,7 +32748,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>72</v>
       </c>
@@ -32767,7 +32768,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>73</v>
       </c>
@@ -32787,7 +32788,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>74</v>
       </c>
@@ -32807,7 +32808,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>75</v>
       </c>
@@ -32827,7 +32828,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>76</v>
       </c>
@@ -32847,7 +32848,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>77</v>
       </c>
@@ -32867,7 +32868,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>78</v>
       </c>
@@ -32887,7 +32888,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>79</v>
       </c>
@@ -32907,7 +32908,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>80</v>
       </c>
@@ -32927,7 +32928,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>81</v>
       </c>
@@ -32947,7 +32948,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>82</v>
       </c>
@@ -32967,7 +32968,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>83</v>
       </c>
@@ -32987,7 +32988,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>84</v>
       </c>
@@ -33007,7 +33008,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>85</v>
       </c>
@@ -33027,7 +33028,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>86</v>
       </c>
@@ -33047,7 +33048,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>87</v>
       </c>
@@ -33067,7 +33068,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>88</v>
       </c>
@@ -33087,7 +33088,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>89</v>
       </c>
@@ -33107,7 +33108,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>90</v>
       </c>
@@ -33127,7 +33128,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>91</v>
       </c>
@@ -33147,7 +33148,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>92</v>
       </c>
@@ -33167,7 +33168,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1</v>
       </c>
@@ -33187,7 +33188,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -33207,7 +33208,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>3</v>
       </c>
@@ -33230,7 +33231,7 @@
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1</v>
       </c>
@@ -33250,7 +33251,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -33270,7 +33271,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>3</v>
       </c>
@@ -33290,7 +33291,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>4</v>
       </c>
@@ -33310,7 +33311,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>5</v>
       </c>
@@ -33330,7 +33331,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>6</v>
       </c>
@@ -33350,7 +33351,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>7</v>
       </c>
@@ -33370,7 +33371,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -33390,7 +33391,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>9</v>
       </c>
@@ -33410,7 +33411,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>10</v>
       </c>
@@ -33430,7 +33431,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>11</v>
       </c>
@@ -33450,7 +33451,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>12</v>
       </c>
@@ -33470,7 +33471,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>13</v>
       </c>
@@ -33490,7 +33491,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>14</v>
       </c>
@@ -33510,7 +33511,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>15</v>
       </c>
@@ -33530,7 +33531,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>16</v>
       </c>
@@ -33550,7 +33551,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>17</v>
       </c>
@@ -33570,7 +33571,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>18</v>
       </c>
@@ -33590,7 +33591,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>19</v>
       </c>
@@ -33610,7 +33611,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>20</v>
       </c>
@@ -33630,7 +33631,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>21</v>
       </c>
@@ -33650,7 +33651,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>22</v>
       </c>
@@ -33670,7 +33671,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>23</v>
       </c>
@@ -33690,7 +33691,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>24</v>
       </c>
@@ -33710,7 +33711,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>25</v>
       </c>
@@ -33730,7 +33731,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>26</v>
       </c>
@@ -33750,7 +33751,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>27</v>
       </c>
@@ -33770,7 +33771,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>28</v>
       </c>
@@ -33790,7 +33791,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>29</v>
       </c>
@@ -33810,7 +33811,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>30</v>
       </c>
@@ -33830,7 +33831,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>31</v>
       </c>
@@ -33850,7 +33851,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>32</v>
       </c>
@@ -33870,7 +33871,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>33</v>
       </c>
@@ -33890,7 +33891,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>34</v>
       </c>
@@ -33910,7 +33911,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>35</v>
       </c>
@@ -33930,7 +33931,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>36</v>
       </c>
@@ -33950,7 +33951,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>37</v>
       </c>
@@ -33970,7 +33971,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38</v>
       </c>
@@ -33990,7 +33991,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>39</v>
       </c>
@@ -34010,7 +34011,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>40</v>
       </c>
@@ -34030,7 +34031,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>41</v>
       </c>
@@ -34050,7 +34051,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>42</v>
       </c>
@@ -34070,7 +34071,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43</v>
       </c>
@@ -34090,7 +34091,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44</v>
       </c>
@@ -34110,7 +34111,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45</v>
       </c>
@@ -34130,7 +34131,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>46</v>
       </c>
@@ -34150,7 +34151,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>47</v>
       </c>
@@ -34170,7 +34171,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>48</v>
       </c>
@@ -34190,7 +34191,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>49</v>
       </c>
@@ -34210,7 +34211,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>50</v>
       </c>
@@ -34230,7 +34231,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>51</v>
       </c>
@@ -34250,7 +34251,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>52</v>
       </c>
@@ -34270,7 +34271,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>53</v>
       </c>
@@ -34290,7 +34291,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>54</v>
       </c>
@@ -34310,7 +34311,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>55</v>
       </c>
@@ -34330,7 +34331,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>56</v>
       </c>
@@ -34350,7 +34351,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>57</v>
       </c>
@@ -34370,7 +34371,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>58</v>
       </c>
@@ -34390,7 +34391,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>59</v>
       </c>
@@ -34410,7 +34411,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>60</v>
       </c>
@@ -34430,7 +34431,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>61</v>
       </c>
@@ -34450,7 +34451,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>62</v>
       </c>
@@ -34470,7 +34471,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>63</v>
       </c>
@@ -34490,7 +34491,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>64</v>
       </c>
@@ -34510,7 +34511,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>65</v>
       </c>
@@ -34530,7 +34531,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>66</v>
       </c>
@@ -34550,7 +34551,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>67</v>
       </c>
@@ -34570,7 +34571,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>68</v>
       </c>
@@ -34590,7 +34591,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>69</v>
       </c>
@@ -34610,7 +34611,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>70</v>
       </c>
@@ -34630,7 +34631,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>71</v>
       </c>
@@ -34650,7 +34651,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>72</v>
       </c>
@@ -34670,7 +34671,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>73</v>
       </c>
@@ -34690,7 +34691,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>74</v>
       </c>
@@ -34710,7 +34711,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>75</v>
       </c>
@@ -34730,7 +34731,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>76</v>
       </c>
@@ -34750,7 +34751,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>77</v>
       </c>
@@ -34770,7 +34771,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>78</v>
       </c>
@@ -34790,7 +34791,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>79</v>
       </c>
@@ -34810,7 +34811,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>80</v>
       </c>
@@ -34830,7 +34831,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>81</v>
       </c>
@@ -34850,7 +34851,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>82</v>
       </c>
@@ -34870,7 +34871,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>83</v>
       </c>
@@ -34890,7 +34891,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>84</v>
       </c>
@@ -34910,7 +34911,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>85</v>
       </c>
@@ -34930,7 +34931,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>86</v>
       </c>
@@ -34950,7 +34951,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>87</v>
       </c>
@@ -34970,7 +34971,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>88</v>
       </c>
@@ -34990,7 +34991,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>89</v>
       </c>
@@ -35010,7 +35011,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>90</v>
       </c>
@@ -35030,7 +35031,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>91</v>
       </c>
@@ -35050,7 +35051,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>92</v>
       </c>
@@ -35070,7 +35071,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>93</v>
       </c>
@@ -35090,7 +35091,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>94</v>
       </c>
@@ -35110,7 +35111,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>95</v>
       </c>
@@ -35130,7 +35131,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>96</v>
       </c>
@@ -35150,7 +35151,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>97</v>
       </c>
@@ -35170,7 +35171,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>98</v>
       </c>
@@ -35190,7 +35191,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>99</v>
       </c>
@@ -35210,7 +35211,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>100</v>
       </c>
@@ -35230,7 +35231,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>101</v>
       </c>
@@ -35250,7 +35251,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>102</v>
       </c>
@@ -35270,7 +35271,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>103</v>
       </c>
@@ -35290,7 +35291,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>104</v>
       </c>
@@ -35310,7 +35311,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>105</v>
       </c>
@@ -35330,7 +35331,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>106</v>
       </c>
@@ -35350,7 +35351,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>107</v>
       </c>
@@ -35370,7 +35371,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>108</v>
       </c>
@@ -35390,7 +35391,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>109</v>
       </c>
@@ -35410,7 +35411,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>110</v>
       </c>
@@ -35430,7 +35431,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>111</v>
       </c>
@@ -35450,7 +35451,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>112</v>
       </c>
@@ -35470,7 +35471,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>113</v>
       </c>
@@ -35490,7 +35491,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>114</v>
       </c>
@@ -35510,7 +35511,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>115</v>
       </c>
@@ -35530,7 +35531,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>116</v>
       </c>
@@ -35550,7 +35551,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>117</v>
       </c>
@@ -35570,7 +35571,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>118</v>
       </c>
@@ -35590,7 +35591,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>119</v>
       </c>
@@ -35610,7 +35611,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>120</v>
       </c>
@@ -35630,7 +35631,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>121</v>
       </c>
@@ -35650,7 +35651,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>122</v>
       </c>
@@ -35670,7 +35671,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>123</v>
       </c>
@@ -35690,7 +35691,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>124</v>
       </c>
@@ -35710,7 +35711,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>125</v>
       </c>
@@ -35730,7 +35731,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>126</v>
       </c>
@@ -35750,7 +35751,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>127</v>
       </c>
@@ -35770,7 +35771,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>128</v>
       </c>
@@ -35790,7 +35791,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>129</v>
       </c>
@@ -35810,7 +35811,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>130</v>
       </c>
@@ -35830,7 +35831,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>131</v>
       </c>
@@ -35850,7 +35851,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>132</v>
       </c>
@@ -35870,7 +35871,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>133</v>
       </c>
@@ -35890,7 +35891,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>134</v>
       </c>
@@ -35910,7 +35911,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>135</v>
       </c>
@@ -35930,7 +35931,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>136</v>
       </c>
@@ -35950,7 +35951,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>137</v>
       </c>
@@ -35970,7 +35971,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>138</v>
       </c>
@@ -35990,7 +35991,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>139</v>
       </c>
@@ -36010,7 +36011,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>140</v>
       </c>
@@ -36030,7 +36031,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>141</v>
       </c>
@@ -36050,7 +36051,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>142</v>
       </c>
@@ -36070,7 +36071,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>143</v>
       </c>
@@ -36090,7 +36091,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>144</v>
       </c>
@@ -36110,7 +36111,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>145</v>
       </c>
@@ -36130,7 +36131,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>146</v>
       </c>
@@ -36150,7 +36151,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>147</v>
       </c>
@@ -36170,7 +36171,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>148</v>
       </c>
@@ -36190,7 +36191,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>149</v>
       </c>
@@ -36210,7 +36211,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>150</v>
       </c>
@@ -36230,7 +36231,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>151</v>
       </c>
@@ -36250,7 +36251,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>152</v>
       </c>
@@ -36273,7 +36274,7 @@
     <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="2"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>1</v>
       </c>
@@ -36293,7 +36294,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -36313,7 +36314,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>3</v>
       </c>
@@ -36333,7 +36334,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>4</v>
       </c>
@@ -36353,7 +36354,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>5</v>
       </c>
@@ -36373,7 +36374,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>6</v>
       </c>
@@ -36393,7 +36394,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>7</v>
       </c>
@@ -36413,7 +36414,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>8</v>
       </c>
@@ -36433,7 +36434,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>9</v>
       </c>
@@ -36453,7 +36454,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>10</v>
       </c>
@@ -36473,7 +36474,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>11</v>
       </c>
@@ -36493,7 +36494,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>12</v>
       </c>
@@ -36513,7 +36514,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>13</v>
       </c>
@@ -36533,7 +36534,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>14</v>
       </c>
@@ -36553,7 +36554,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>15</v>
       </c>
@@ -36573,7 +36574,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>16</v>
       </c>
@@ -36593,7 +36594,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>17</v>
       </c>
@@ -36613,7 +36614,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>18</v>
       </c>
@@ -36633,7 +36634,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>19</v>
       </c>
@@ -36653,7 +36654,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>20</v>
       </c>
@@ -36673,7 +36674,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>21</v>
       </c>
@@ -36693,7 +36694,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>22</v>
       </c>
@@ -36713,7 +36714,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>23</v>
       </c>
@@ -36733,7 +36734,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>24</v>
       </c>
@@ -36753,7 +36754,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>25</v>
       </c>
@@ -36773,7 +36774,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>26</v>
       </c>
@@ -36793,7 +36794,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>27</v>
       </c>
@@ -36813,7 +36814,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>28</v>
       </c>
@@ -36833,7 +36834,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>29</v>
       </c>
@@ -36853,7 +36854,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>30</v>
       </c>
@@ -36873,7 +36874,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>31</v>
       </c>
@@ -36893,7 +36894,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>32</v>
       </c>
@@ -36913,7 +36914,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>33</v>
       </c>
@@ -36933,7 +36934,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>34</v>
       </c>
@@ -36953,7 +36954,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>35</v>
       </c>
@@ -36973,7 +36974,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>36</v>
       </c>
@@ -36993,7 +36994,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>1</v>
       </c>
@@ -37013,7 +37014,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>2</v>
       </c>
@@ -37033,7 +37034,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>3</v>
       </c>
